--- a/Assets/Documents/文明设计/文明设计表.xlsx
+++ b/Assets/Documents/文明设计/文明设计表.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24706"/>
+  <workbookPr saveExternalLinkValues="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ToyEmpires\Assets\Documents\文明设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ToyEmpires\ToyEmpires\ToyEmpires\Assets\Documents\文明设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2101CE-8B95-4AD6-89B4-347D8E172EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB7D850-EA61-49AA-A6B2-ECA9FFDA13B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C4804E86-8690-4602-B7B2-8C2155FDB24F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4804E86-8690-4602-B7B2-8C2155FDB24F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="兵种数据表" sheetId="3" r:id="rId2"/>
+    <sheet name="工人数据表" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +28,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,19 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>特色机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特色兵种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特色政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>科技树</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,7 +54,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特色建筑</t>
+    <t>白板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,8 +133,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -124,6 +161,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="近战单位"/>
+      <sheetName val="远程单位"/>
+      <sheetName val="工人"/>
+    </sheetNames>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,35 +472,2468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72834EA-9F27-4BE1-B6E3-503B5D97A2B6}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="4" max="4" width="37.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="44.625" customWidth="1"/>
+    <col min="6" max="6" width="27.875" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="str">
+        <f>[1]工人!A2</f>
+        <v>0000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{E8C35B75-81FF-428B-AEBA-A36E204D2254}">
+      <formula1>"'..\兵种设计\[兵种设计表.xlsx]工人'!$A:$A"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B83DB168-1F2A-49D2-93AF-8A9E521671DB}">
+          <x14:formula1>
+            <xm:f>工人数据表!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FF2C05-A014-418E-903F-7E3A1D155A48}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <f>[1]近战单位!A2</f>
+        <v>1000</v>
+      </c>
+      <c r="B1">
+        <f>[1]远程单位!A2</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>[1]近战单位!A3</f>
+        <v>1001</v>
+      </c>
+      <c r="B2">
+        <f>[1]远程单位!A3</f>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>[1]近战单位!A4</f>
+        <v>1002</v>
+      </c>
+      <c r="B3">
+        <f>[1]远程单位!A4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>[1]近战单位!A5</f>
+        <v>1003</v>
+      </c>
+      <c r="B4">
+        <f>[1]远程单位!A5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>[1]近战单位!A6</f>
+        <v>1004</v>
+      </c>
+      <c r="B5">
+        <f>[1]远程单位!A6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>[1]近战单位!A8</f>
+        <v>1006</v>
+      </c>
+      <c r="B6">
+        <f>[1]远程单位!A7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>[1]近战单位!A9</f>
+        <v>1007</v>
+      </c>
+      <c r="B7">
+        <f>[1]远程单位!A8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>[1]近战单位!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f>[1]远程单位!A9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>[1]近战单位!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f>[1]远程单位!A10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>[1]近战单位!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>[1]远程单位!A11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>[1]近战单位!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>[1]远程单位!A12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>[1]近战单位!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f>[1]远程单位!A13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>[1]近战单位!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f>[1]远程单位!A14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>[1]近战单位!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f>[1]远程单位!A15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>[1]近战单位!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f>[1]远程单位!A16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>[1]近战单位!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f>[1]远程单位!A17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>[1]近战单位!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f>[1]远程单位!A18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>[1]近战单位!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <f>[1]远程单位!A19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>[1]近战单位!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f>[1]远程单位!A20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>[1]近战单位!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f>[1]远程单位!A21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>[1]近战单位!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f>[1]远程单位!A22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>[1]近战单位!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f>[1]远程单位!A23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>[1]近战单位!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>[1]远程单位!A24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>[1]近战单位!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f>[1]远程单位!A25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>[1]近战单位!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <f>[1]远程单位!A26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>[1]近战单位!A28</f>
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f>[1]远程单位!A27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>[1]近战单位!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <f>[1]远程单位!A28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>[1]近战单位!A30</f>
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <f>[1]远程单位!A29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f>[1]近战单位!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f>[1]远程单位!A30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f>[1]近战单位!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f>[1]远程单位!A31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f>[1]近战单位!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f>[1]远程单位!A32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>[1]近战单位!A34</f>
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f>[1]远程单位!A33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>[1]近战单位!A35</f>
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f>[1]远程单位!A34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>[1]近战单位!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f>[1]远程单位!A35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>[1]近战单位!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>[1]远程单位!A36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>[1]近战单位!A38</f>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f>[1]远程单位!A37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f>[1]近战单位!A39</f>
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f>[1]远程单位!A38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>[1]近战单位!A40</f>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f>[1]远程单位!A39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>[1]近战单位!A41</f>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>[1]远程单位!A40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f>[1]近战单位!A42</f>
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f>[1]远程单位!A41</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3521D46E-D58C-4002-8299-8909269D0C13}">
+  <dimension ref="A1:A326"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>[1]工人!A2</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>[1]工人!A3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f>[1]工人!A4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f>[1]工人!A5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f>[1]工人!A6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f>[1]工人!A7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f>[1]工人!A8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f>[1]工人!A9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f>[1]工人!A10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f>[1]工人!A11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f>[1]工人!A12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f>[1]工人!A13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f>[1]工人!A14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f>[1]工人!A15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f>[1]工人!A16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f>[1]工人!A17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f>[1]工人!A18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f>[1]工人!A19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f>[1]工人!A20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f>[1]工人!A21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f>[1]工人!A22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f>[1]工人!A23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f>[1]工人!A24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f>[1]工人!A25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f>[1]工人!A26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f>[1]工人!A27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f>[1]工人!A28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f>[1]工人!A29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f>[1]工人!A30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f>[1]工人!A31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f>[1]工人!A32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f>[1]工人!A33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f>[1]工人!A34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f>[1]工人!A35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f>[1]工人!A36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f>[1]工人!A37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f>[1]工人!A38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f>[1]工人!A39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f>[1]工人!A40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f>[1]工人!A41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f>[1]工人!A42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f>[1]工人!A43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f>[1]工人!A44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f>[1]工人!A45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f>[1]工人!A46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f>[1]工人!A47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f>[1]工人!A48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f>[1]工人!A49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f>[1]工人!A50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f>[1]工人!A51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f>[1]工人!A52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f>[1]工人!A53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f>[1]工人!A54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f>[1]工人!A55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f>[1]工人!A56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f>[1]工人!A57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f>[1]工人!A58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f>[1]工人!A59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f>[1]工人!A60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f>[1]工人!A61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f>[1]工人!A62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f>[1]工人!A63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f>[1]工人!A64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f>[1]工人!A65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f>[1]工人!A66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f>[1]工人!A67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f>[1]工人!A68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f>[1]工人!A69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f>[1]工人!A70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f>[1]工人!A71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f>[1]工人!A72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f>[1]工人!A73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f>[1]工人!A74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f>[1]工人!A75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f>[1]工人!A76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f>[1]工人!A77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f>[1]工人!A78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <f>[1]工人!A79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <f>[1]工人!A80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <f>[1]工人!A81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f>[1]工人!A82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f>[1]工人!A83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f>[1]工人!A84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <f>[1]工人!A85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <f>[1]工人!A86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f>[1]工人!A87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f>[1]工人!A88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f>[1]工人!A89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <f>[1]工人!A90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <f>[1]工人!A91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <f>[1]工人!A92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <f>[1]工人!A93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <f>[1]工人!A94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <f>[1]工人!A95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <f>[1]工人!A96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <f>[1]工人!A97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <f>[1]工人!A98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <f>[1]工人!A99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <f>[1]工人!A100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <f>[1]工人!A101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <f>[1]工人!A102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <f>[1]工人!A103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <f>[1]工人!A104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <f>[1]工人!A105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <f>[1]工人!A106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <f>[1]工人!A107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <f>[1]工人!A108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <f>[1]工人!A109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <f>[1]工人!A110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <f>[1]工人!A111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <f>[1]工人!A112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <f>[1]工人!A113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <f>[1]工人!A114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <f>[1]工人!A115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <f>[1]工人!A116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <f>[1]工人!A117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <f>[1]工人!A118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <f>[1]工人!A119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <f>[1]工人!A120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <f>[1]工人!A121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <f>[1]工人!A122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <f>[1]工人!A123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <f>[1]工人!A124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <f>[1]工人!A125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <f>[1]工人!A126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <f>[1]工人!A127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <f>[1]工人!A128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <f>[1]工人!A129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <f>[1]工人!A130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <f>[1]工人!A131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <f>[1]工人!A132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <f>[1]工人!A133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <f>[1]工人!A134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <f>[1]工人!A135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <f>[1]工人!A136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <f>[1]工人!A137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <f>[1]工人!A138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <f>[1]工人!A139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <f>[1]工人!A140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <f>[1]工人!A141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <f>[1]工人!A142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <f>[1]工人!A143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <f>[1]工人!A144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <f>[1]工人!A145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <f>[1]工人!A146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <f>[1]工人!A147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <f>[1]工人!A148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <f>[1]工人!A149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <f>[1]工人!A150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <f>[1]工人!A151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <f>[1]工人!A152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <f>[1]工人!A153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <f>[1]工人!A154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <f>[1]工人!A155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <f>[1]工人!A156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <f>[1]工人!A157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <f>[1]工人!A158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <f>[1]工人!A159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <f>[1]工人!A160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <f>[1]工人!A161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <f>[1]工人!A162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <f>[1]工人!A163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <f>[1]工人!A164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <f>[1]工人!A165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <f>[1]工人!A166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <f>[1]工人!A167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <f>[1]工人!A168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <f>[1]工人!A169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <f>[1]工人!A170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <f>[1]工人!A171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <f>[1]工人!A172</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <f>[1]工人!A173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <f>[1]工人!A174</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <f>[1]工人!A175</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <f>[1]工人!A176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <f>[1]工人!A177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <f>[1]工人!A178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <f>[1]工人!A179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <f>[1]工人!A180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <f>[1]工人!A181</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <f>[1]工人!A182</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <f>[1]工人!A183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <f>[1]工人!A184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <f>[1]工人!A185</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <f>[1]工人!A186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <f>[1]工人!A187</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <f>[1]工人!A188</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <f>[1]工人!A189</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <f>[1]工人!A190</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <f>[1]工人!A191</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <f>[1]工人!A192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <f>[1]工人!A193</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <f>[1]工人!A194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <f>[1]工人!A195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <f>[1]工人!A196</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <f>[1]工人!A197</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <f>[1]工人!A198</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <f>[1]工人!A199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <f>[1]工人!A200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <f>[1]工人!A201</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <f>[1]工人!A202</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <f>[1]工人!A203</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <f>[1]工人!A204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <f>[1]工人!A205</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <f>[1]工人!A206</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <f>[1]工人!A207</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <f>[1]工人!A208</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <f>[1]工人!A209</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <f>[1]工人!A210</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <f>[1]工人!A211</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <f>[1]工人!A212</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <f>[1]工人!A213</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <f>[1]工人!A214</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <f>[1]工人!A215</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <f>[1]工人!A216</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <f>[1]工人!A217</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <f>[1]工人!A218</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <f>[1]工人!A219</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <f>[1]工人!A220</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <f>[1]工人!A221</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <f>[1]工人!A222</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <f>[1]工人!A223</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <f>[1]工人!A224</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <f>[1]工人!A225</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <f>[1]工人!A226</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <f>[1]工人!A227</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <f>[1]工人!A228</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <f>[1]工人!A229</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <f>[1]工人!A230</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <f>[1]工人!A231</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <f>[1]工人!A232</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <f>[1]工人!A233</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <f>[1]工人!A234</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <f>[1]工人!A235</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <f>[1]工人!A236</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <f>[1]工人!A237</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <f>[1]工人!A238</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <f>[1]工人!A239</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <f>[1]工人!A240</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <f>[1]工人!A241</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <f>[1]工人!A242</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <f>[1]工人!A243</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <f>[1]工人!A244</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <f>[1]工人!A245</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <f>[1]工人!A246</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <f>[1]工人!A247</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <f>[1]工人!A248</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <f>[1]工人!A249</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <f>[1]工人!A250</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <f>[1]工人!A251</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <f>[1]工人!A252</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <f>[1]工人!A253</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <f>[1]工人!A254</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <f>[1]工人!A255</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <f>[1]工人!A256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <f>[1]工人!A257</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <f>[1]工人!A258</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <f>[1]工人!A259</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <f>[1]工人!A260</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <f>[1]工人!A261</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <f>[1]工人!A262</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <f>[1]工人!A263</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <f>[1]工人!A264</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <f>[1]工人!A265</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <f>[1]工人!A266</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <f>[1]工人!A267</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <f>[1]工人!A268</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <f>[1]工人!A269</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <f>[1]工人!A270</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <f>[1]工人!A271</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <f>[1]工人!A272</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <f>[1]工人!A273</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <f>[1]工人!A274</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <f>[1]工人!A275</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <f>[1]工人!A276</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <f>[1]工人!A277</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <f>[1]工人!A278</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <f>[1]工人!A279</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <f>[1]工人!A280</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <f>[1]工人!A281</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <f>[1]工人!A282</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <f>[1]工人!A283</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <f>[1]工人!A284</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <f>[1]工人!A285</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <f>[1]工人!A286</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <f>[1]工人!A287</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <f>[1]工人!A288</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <f>[1]工人!A289</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <f>[1]工人!A290</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <f>[1]工人!A291</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <f>[1]工人!A292</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <f>[1]工人!A293</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <f>[1]工人!A294</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <f>[1]工人!A295</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <f>[1]工人!A296</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <f>[1]工人!A297</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <f>[1]工人!A298</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <f>[1]工人!A299</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <f>[1]工人!A300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <f>[1]工人!A301</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <f>[1]工人!A302</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <f>[1]工人!A303</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <f>[1]工人!A304</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <f>[1]工人!A305</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <f>[1]工人!A306</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <f>[1]工人!A307</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <f>[1]工人!A308</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <f>[1]工人!A309</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <f>[1]工人!A310</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <f>[1]工人!A311</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <f>[1]工人!A312</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <f>[1]工人!A313</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <f>[1]工人!A314</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <f>[1]工人!A315</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <f>[1]工人!A316</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <f>[1]工人!A317</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <f>[1]工人!A318</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <f>[1]工人!A319</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <f>[1]工人!A320</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <f>[1]工人!A321</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <f>[1]工人!A322</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <f>[1]工人!A323</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <f>[1]工人!A324</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <f>[1]工人!A325</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <f>[1]工人!A326</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <f>[1]工人!A327</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
